--- a/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>6,23</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 6,49</t>
+          <t>6,2; 6,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 6,27</t>
+          <t>5,99; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 6,29</t>
+          <t>6,11; 6,34</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 6,37</t>
+          <t>6,24; 6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 6,72</t>
+          <t>6,43; 7,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 6,5</t>
+          <t>6,38; 6,73</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,86</t>
+          <t>6,4; 6,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,08</t>
+          <t>6,77; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,91</t>
+          <t>6,65; 6,93</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,44</t>
+          <t>6,34; 6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,62</t>
+          <t>6,45; 6,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 6,5</t>
+          <t>6,42; 6,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 6,56</t>
+          <t>6,17; 6,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 6,28</t>
+          <t>6,0; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 6,57</t>
+          <t>6,25; 6,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 7,03</t>
+          <t>6,41; 6,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 6,73</t>
+          <t>6,38; 6,75</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 6,86</t>
+          <t>6,39; 6,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,09</t>
+          <t>6,78; 7,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,93</t>
+          <t>6,64; 6,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 6,59</t>
+          <t>6,34; 6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 6,86</t>
+          <t>6,44; 6,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 6,66</t>
+          <t>6,42; 6,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Escala adherencia a la dieta mediterránea a través del Predimed</t>
+          <t>Puntuación media de la escala de adherencia a la dieta mediterránea (Predimed)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
